--- a/biology/Botanique/Elatine_hexandra/Elatine_hexandra.xlsx
+++ b/biology/Botanique/Elatine_hexandra/Elatine_hexandra.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Élatine à six étamines, Élatine des marais
 Elatine hexandra, l’Élatine à six étamines ou Élatine des marais, est une espèce de plantes à fleurs du genre Elatine et de la famille des Elatinaceae, endémique d'Europe.
@@ -512,11 +524,13 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Elatine hexandra est une plante annuelle qui mesure de 2 à 10 cm. La corolle a un diamètre de 2 à 3 mm[2]. Les feuilles sont opposées, oblongues-elliptiques, atténuées en pétiole plus court que le limbe. 
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Elatine hexandra est une plante annuelle qui mesure de 2 à 10 cm. La corolle a un diamètre de 2 à 3 mm. Les feuilles sont opposées, oblongues-elliptiques, atténuées en pétiole plus court que le limbe. 
 Les fleurs sont d'un blanc rosé, axillaires, alternes, solitaires, pédicellées, à pédicelles ordinairement plus courts que les feuilles. Il y a trois sépales, égalant ou dépassant à peine la capsule, trois pétales un peu plus longs que les sépales, et six étamines (d'où son nom). 
-La capsule est déprimée, à trois valves, et les graines sont un peu arquées[3].
+La capsule est déprimée, à trois valves, et les graines sont un peu arquées.
 </t>
         </is>
       </c>
@@ -545,9 +559,11 @@
           <t>Habitat et répartition</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cette petite plante prostrée pousse dans des zones exondées des rivières et des lacs. Elle est endémique d'Europe[2].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette petite plante prostrée pousse dans des zones exondées des rivières et des lacs. Elle est endémique d'Europe.
 </t>
         </is>
       </c>
@@ -576,23 +592,25 @@
           <t>Taxonomie</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le nom scientifique complet (avec auteur) de ce taxon est Elatine hexandra (Lapierre) DC.[4].
-L'espèce a été initialement classée dans le genre Tillaea sous le basionyme Tillaea hexandra Lapierre[4].
-Cette espèce porte en français les noms vernaculaires ou normalisés « Élatine des marais »[5] ou « Élatine à six étamines »[6],[5].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le nom scientifique complet (avec auteur) de ce taxon est Elatine hexandra (Lapierre) DC..
+L'espèce a été initialement classée dans le genre Tillaea sous le basionyme Tillaea hexandra Lapierre.
+Cette espèce porte en français les noms vernaculaires ou normalisés « Élatine des marais » ou « Élatine à six étamines »,.
 Elatine hexandra a pour synonymes :
-Birolia paludosa Bellardi, 1809[6]
-Elatine paludosa Seub.[1]
-Elatine hexandra subvar. pedunculata Coss. &amp; Germ., 1861[6]
-Elatine hexandra var. pedunculata (Coss. &amp; Germ.) Rouy &amp; Foucaud, 1896[6]
-Elatine paludosa subsp. hexandra (Lapierre) Bonnier, 1913[6]
-Elatine paludosa Seub., 1842[6]
-Elatine tripetala Sm., 1793[6],[1]
-Hydropiper hexandrum (Lapierre) Fourr., 1868[6],[1]
-Hydropiper majus Fourr., 1868[6]
-Potamopitys hexandra (Lapierre) Kuntze[1]
-Tillaea hexandra Lapierre, 1802[6]
+Birolia paludosa Bellardi, 1809
+Elatine paludosa Seub.
+Elatine hexandra subvar. pedunculata Coss. &amp; Germ., 1861
+Elatine hexandra var. pedunculata (Coss. &amp; Germ.) Rouy &amp; Foucaud, 1896
+Elatine paludosa subsp. hexandra (Lapierre) Bonnier, 1913
+Elatine paludosa Seub., 1842
+Elatine tripetala Sm., 1793,
+Hydropiper hexandrum (Lapierre) Fourr., 1868,
+Hydropiper majus Fourr., 1868
+Potamopitys hexandra (Lapierre) Kuntze
+Tillaea hexandra Lapierre, 1802
 </t>
         </is>
       </c>
@@ -621,9 +639,11 @@
           <t>Menaces et conservation</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">L'espèce est menacée partout en France, où elle est protégée : elle est classée « en danger critique d'extinction » (CR) en Île-de-France, Nord-Pas-de-Calais et Picardie, « en danger » (EN) en Alsace, Auvergne, Bourgogne, Rhône-Alpes et « espèce vulnérable » (VU) en Basse-Normandie, Champagne-Ardenne, Corse et Lorraine[6].
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'espèce est menacée partout en France, où elle est protégée : elle est classée « en danger critique d'extinction » (CR) en Île-de-France, Nord-Pas-de-Calais et Picardie, « en danger » (EN) en Alsace, Auvergne, Bourgogne, Rhône-Alpes et « espèce vulnérable » (VU) en Basse-Normandie, Champagne-Ardenne, Corse et Lorraine.
 </t>
         </is>
       </c>
@@ -652,7 +672,9 @@
           <t>Publication originale</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
         <is>
           <t>Jean-Baptiste Lamarck, Augustin Pyramus de Candolle, A. G. Dezauche et Jacques Eustache de Sáeve, Flore française, ou, Descriptions succinctes de toutes les plantes qui croissent naturellement en France : disposées selon une nouvelle méthode d'analyse, et précédées par un exposé des principes élémentaires de la botanique, vol. 5, Desray, 1805 (lire en ligne), p. 609</t>
         </is>
